--- a/doc/hupf/Gene Frequency 5-7.xlsx
+++ b/doc/hupf/Gene Frequency 5-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\Documents\Genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51A5EC-F1F3-4E2B-AB24-9644B21D479B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C6E02C-6ECC-44AB-A7E4-185296EAE85F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12045" windowHeight="6315" firstSheet="9" activeTab="13" xr2:uid="{F242D327-181C-4A2D-8161-3E7E0C2ECB73}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12045" windowHeight="6315" firstSheet="10" activeTab="14" xr2:uid="{F242D327-181C-4A2D-8161-3E7E0C2ECB73}"/>
   </bookViews>
   <sheets>
     <sheet name="NR3C1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,11 @@
     <sheet name="IL12B" sheetId="8" r:id="rId8"/>
     <sheet name="TRPC4" sheetId="9" r:id="rId9"/>
     <sheet name="NOS3" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
-    <sheet name="GRIK2" sheetId="11" r:id="rId12"/>
-    <sheet name="TPH2" sheetId="14" r:id="rId13"/>
-    <sheet name="TRPC2" sheetId="12" r:id="rId14"/>
-    <sheet name="CRHR1" sheetId="13" r:id="rId15"/>
-    <sheet name="IFNG" sheetId="15" r:id="rId16"/>
+    <sheet name="GRIK2" sheetId="11" r:id="rId11"/>
+    <sheet name="TPH2" sheetId="14" r:id="rId12"/>
+    <sheet name="TRPC2" sheetId="12" r:id="rId13"/>
+    <sheet name="CRHR1" sheetId="13" r:id="rId14"/>
+    <sheet name="IFNG" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4010" uniqueCount="503">
   <si>
     <t>Type</t>
   </si>
@@ -1592,6 +1591,43 @@
   </si>
   <si>
     <t>[C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469)</t>
+  </si>
+  <si>
+    <t>IFNG [(Interferon gamma)](http://www.uniprot.org/uniprot/P01579) encodes a cytokine, also known as a small protein, that is involved in cell signaling and immunomodulating. The INF-gamma cytokine is produced by lymphocytes (a type of white blood cell) when activated by antigens such as viruses or microbial infections. It has antiviral properties, immunoregulatory functions, and antitumor effects. Variations in this gene are associated with autoimmune disorders including [systemic lupus erythematosus](https://www.ncbi.nlm.nih.gov/pubmed/19919944), [increased susceptibility to viral, bacterial, and parasitical infections](https://www.ncbi.nlm.nih.gov/gene/3458) such as [tuberculosis](https://www.ncbi.nlm.nih.gov/pubmed/24529854), [asthma](https://www.ncbi.nlm.nih.gov/pubmed/18385742), [aplastic anemia](http://www.uniprot.org/citations/15327519), [increased progression of acquired immunodeficiency syndrome](https://www.ncbi.nlm.nih.gov/pubmed/12854077) and [ME/CFS]( https://www.ncbi.nlm.nih.gov/pubmed/26063326).</t>
+  </si>
+  <si>
+    <t>This variant causes increased IFN-gamma production in natural killer cells and T-cells, which decreases CD-4 counts and impairs the ability of the immune system to recognize and fight viruses. Elevated expression of IFNG has been associated with [systemic lupus erythematosus](https://www.ncbi.nlm.nih.gov/pubmed/19919944), with this variant being marginally correlated. Due to the reduced efficiency of the immune system, The CT and TT variants significantly associated with [tuberculosis](https://www.ncbi.nlm.nih.gov/pubmed/24529854),  [pulmonary tuberculosis](https://www.ncbi.nlm.nih.gov/pubmed/28867622), [asthma](https://www.ncbi.nlm.nih.gov/pubmed/18385742) and [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/26063326).</t>
+  </si>
+  <si>
+    <t>People should consider regular bloodwork to check levels of white blood cells. Be aware of your susceptibility to TB and avoid infectious areas and patients.  [Medications](http://www.uniprot.org/uniprot/P01579) used for IFNG variants include: [Apremilast](https://www.drugbank.ca/drugs/DB05676), [Fontolizumab](https://www.drugbank.ca/drugs/DB05111), [Glucosamine](https://www.drugbank.ca/drugs/DB01296), [Olsalazine](https://www.drugbank.ca/drugs/DB01250), and [VIR201](https://www.drugbank.ca/drugs/DB05110).</t>
+  </si>
+  <si>
+    <t>&lt;# A68156382G(T;T) A68156382G(C;T) #&gt;</t>
+  </si>
+  <si>
+    <t>&lt;# G-179T (T;T) #&gt;</t>
+  </si>
+  <si>
+    <t>This pathogenic, or disease causing variant, is associated with [rapid progression to acquired immunodeficiency syndrome](https://www.ncbi.nlm.nih.gov/medgen/C4016227).  The -179T allele is a risk factor, as IFN-gamma production is increased, causing CD4 cell depletion. This reduction weakens the immune system and [hastens the onset of AIDS after infection with HIV](https://www.ncbi.nlm.nih.gov/pubmed/16724074).</t>
+  </si>
+  <si>
+    <t>People who are HIV positive should carefully monitor CD4 levels. [Medications](http://www.uniprot.org/uniprot/P01579) used for IFNG variants include: [Apremilast](https://www.drugbank.ca/drugs/DB05676), [Fontolizumab](https://www.drugbank.ca/drugs/DB05111), [Glucosamine](https://www.drugbank.ca/drugs/DB01296), [Olsalazine](https://www.drugbank.ca/drugs/DB01250), and [VIR201](https://www.drugbank.ca/drugs/DB05110).</t>
+  </si>
+  <si>
+    <t>fatigue D005221 pain D010146 muscle aches and pain D063806 tender lymph nodes D000072281 inflamation D007249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| Variant       |Population %           | 
+| :-------------: |:-------------:| 
+| G-179T (T;T) | 0.5%     | 
+| G-179T (C;T) | 1.7%     | 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| Variant       |Population %           |
+| :-------------: |:-------------:| 
+| A68156382G (T;T) | 26.5% | 
+| A68156382G (C;T) |  47.3%   | </t>
   </si>
 </sst>
 </file>
@@ -12561,3105 +12597,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921C4782-BCB2-47D8-9778-130E84493D98}">
-  <dimension ref="A1:AJ2522"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="9" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="13" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="3" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="17.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" style="3" customWidth="1"/>
-    <col min="19" max="23" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="3" customWidth="1"/>
-    <col min="27" max="27" width="18" style="3" customWidth="1"/>
-    <col min="28" max="28" width="17.85546875" style="3" customWidth="1"/>
-    <col min="29" max="29" width="16" style="3" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="3"/>
-    <col min="31" max="31" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="Y1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AJ1" s="7"/>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="3" t="str">
-        <f>CONCATENATE("# What does the ",B2," gene do?")</f>
-        <v># What does the TRPC4 gene do?</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AF2" s="7"/>
-      <c r="AJ2" s="7"/>
-    </row>
-    <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="34"/>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.47</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L9" si="0">J3/K3</f>
-        <v>1.4114114114114114</v>
-      </c>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AF3" s="7"/>
-      <c r="AJ3" s="7"/>
-    </row>
-    <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="3">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="L4" s="3">
-        <f t="shared" si="0"/>
-        <v>1.751824817518248</v>
-      </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AC4" s="10"/>
-    </row>
-    <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="36"/>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="L5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.751824817518248</v>
-      </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AC5" s="10"/>
-    </row>
-    <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="str">
-        <f>CONCATENATE("This gene is located on chromosome ",B6,". The ",B7," it creates acts in your ",B8)</f>
-        <v>This gene is located on chromosome 13. The protein it creates acts in your endometrium and prostate.</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.44</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.316</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3924050632911393</v>
-      </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AC6" s="10"/>
-    </row>
-    <row r="7" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="L7" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3595166163141994</v>
-      </c>
-      <c r="Y7" s="6"/>
-      <c r="AC7" s="10"/>
-    </row>
-    <row r="8" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="3">
-        <f t="shared" si="0"/>
-        <v>1.7299999999999998</v>
-      </c>
-      <c r="Y8" s="6"/>
-      <c r="AC8" s="10"/>
-    </row>
-    <row r="9" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="3" t="str">
-        <f>CONCATENATE("&lt;TissueList ",B9," /&gt;")</f>
-        <v>&lt;TissueList male tissue D005837 female tissue D005836 /&gt;</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.435</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="L9" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2985074626865671</v>
-      </c>
-      <c r="Y9" s="6"/>
-      <c r="AC9" s="10"/>
-    </row>
-    <row r="10" spans="1:36" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="37"/>
-      <c r="H10" s="18" t="str">
-        <f>B19</f>
-        <v>G37668344T</v>
-      </c>
-      <c r="I10" s="18" t="str">
-        <f>B25</f>
-        <v>T159323005C</v>
-      </c>
-      <c r="J10" s="18" t="str">
-        <f>B31</f>
-        <v>G37793875T</v>
-      </c>
-      <c r="K10" s="18" t="str">
-        <f>B37</f>
-        <v>C37793812T</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <f>CONCATENATE("&lt;GeneAnalysis gene=",CHAR(34),B11,CHAR(34)," interval=",CHAR(34),B12,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">&lt;GeneAnalysis gene="TRPC4" interval="NC_000013.11:g.37632063_37870425"&gt; </v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>254</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-    </row>
-    <row r="12" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="C13" s="3" t="str">
-        <f>CONCATENATE("# What are some common mutations of ",B11,"?")</f>
-        <v># What are some common mutations of TRPC4?</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-    </row>
-    <row r="14" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="9" t="str">
-        <f>CONCATENATE("People with this variant have one copy of the ",B22," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have one copy of the [G37668344T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1570612) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="I14" s="9" t="str">
-        <f>CONCATENATE("People with this variant have one copy of the ",B28," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have one copy of the [T159323005C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2985167) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="J14" s="9" t="str">
-        <f>CONCATENATE("People with this variant have one copy of the ",B34," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have one copy of the [G37793875T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=655207) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="K14" s="9" t="str">
-        <f>CONCATENATE("People with this variant have one copy of the ",B40," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have one copy of the [C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-    </row>
-    <row r="15" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="str">
-        <f>CONCATENATE("There are ",B13," common variants in ",B11,": ",B22,", ",B28,", ",B34,", and ",B40,".")</f>
-        <v>There are four common variants in TRPC4: [G37668344T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1570612), [T159323005C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2985167), [G37793875T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=655207), and [C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469).</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-    </row>
-    <row r="16" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H16" s="9">
-        <v>46.2</v>
-      </c>
-      <c r="I16" s="9">
-        <v>49.8</v>
-      </c>
-      <c r="J16" s="9">
-        <v>47.5</v>
-      </c>
-      <c r="K16" s="9">
-        <v>48</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="str">
-        <f>CONCATENATE("&lt;# ",B19," #&gt;")</f>
-        <v>&lt;# G37668344T #&gt;</v>
-      </c>
-      <c r="H17" s="9" t="str">
-        <f>CONCATENATE("People with this variant have two copies of the ",B22," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have two copies of the [G37668344T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1570612) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="I17" s="9" t="str">
-        <f>CONCATENATE("People with this variant have two copies of the ",B28," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have two copies of the [T159323005C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2985167) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="J17" s="9" t="str">
-        <f>CONCATENATE("People with this variant have two copies of the ",B34," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have two copies of the [G37793875T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=655207) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="K17" s="9" t="str">
-        <f>CONCATENATE("People with this variant have two copies of the ",B40," variant. This substitution of a single nucleotide is known as a missense mutation.")</f>
-        <v>People with this variant have two copies of the [C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" s="3" t="str">
-        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B18,CHAR(34)," name=",CHAR(34),B19,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC_000013.11:g.37668344G&gt;T" name="G37668344T"&gt; </v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="9">
-        <v>24.7</v>
-      </c>
-      <c r="I19" s="9">
-        <v>34.4</v>
-      </c>
-      <c r="J19" s="9">
-        <v>26.9</v>
-      </c>
-      <c r="K19" s="9">
-        <v>28</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B20," to ",B21," resulting in incorrect ",B7," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the TRPC4 gene from guanine (G) to thymine (T) resulting in incorrect protein function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-      <c r="H20" s="9" t="str">
-        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="I20" s="9" t="str">
-        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="J20" s="9" t="str">
-        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="K20" s="9" t="str">
-        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="3" t="str">
-        <f>"  &lt;/Variant&gt;"</f>
-        <v xml:space="preserve">  &lt;/Variant&gt;</v>
-      </c>
-      <c r="H22" s="9">
-        <v>29.1</v>
-      </c>
-      <c r="I22" s="9">
-        <v>15.8</v>
-      </c>
-      <c r="J22" s="9">
-        <v>25.6</v>
-      </c>
-      <c r="K22" s="9">
-        <v>24</v>
-      </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="3" t="str">
-        <f>CONCATENATE("&lt;# ",B25," #&gt;")</f>
-        <v>&lt;# T159323005C #&gt;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="3" t="str">
-        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B24,CHAR(34)," name=",CHAR(34),B25,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC_000013.11:g.37656405G&gt;A" name="T159323005C"&gt; </v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B26," to ",B27," resulting in incorrect ",B7," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the TRPC4 gene from guanine (G) to adenine (A) resulting in incorrect protein function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f>"  &lt;/Variant&gt;"</f>
-        <v xml:space="preserve">  &lt;/Variant&gt;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="3" t="str">
-        <f>CONCATENATE("&lt;# ",B31," #&gt;")</f>
-        <v>&lt;# G37793875T #&gt;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="C30" s="3" t="str">
-        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B30,CHAR(34)," name=",CHAR(34),B31,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC_000013.11:g.37793875G&gt;T" name="G37793875T"&gt; </v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="34" t="str">
-        <f>"cytosine (C)"</f>
-        <v>cytosine (C)</v>
-      </c>
-      <c r="C32" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B32," to ",B33," resulting in incorrect ",B7," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the TRPC4 gene from cytosine (C) to adenine (A) resulting in incorrect protein function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="C34" s="3" t="str">
-        <f>"  &lt;/Variant&gt;"</f>
-        <v xml:space="preserve">  &lt;/Variant&gt;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="C35" s="3" t="str">
-        <f>CONCATENATE("&lt;# ",B37," #&gt;")</f>
-        <v>&lt;# C37793812T #&gt;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>488</v>
-      </c>
-      <c r="C36" s="3" t="str">
-        <f>CONCATENATE("  &lt;Variant hgvs=",CHAR(34),B36,CHAR(34)," name=",CHAR(34),B37,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Variant hgvs="NC_000013.11:g.37793812C&gt;T" name="C37793812T"&gt; </v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="9" t="str">
-        <f>"cytosine (C)"</f>
-        <v>cytosine (C)</v>
-      </c>
-      <c r="C38" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B38," to ",B39," resulting in incorrect ",B7," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the TRPC4 gene from cytosine (C) to thymine (T) resulting in incorrect protein function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="C40" s="3" t="str">
-        <f>"  &lt;/Variant&gt;"</f>
-        <v xml:space="preserve">  &lt;/Variant&gt;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="18" t="str">
-        <f>C17</f>
-        <v>&lt;# G37668344T #&gt;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="21" t="str">
-        <f>H11</f>
-        <v>NC_000013.11:g.</v>
-      </c>
-      <c r="C43" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B43,B44,";",B45,CHAR(34)," name=",CHAR(34),B19,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37668344G&gt;T];[37668344=]" name="G37668344T"&gt; </v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="21" t="str">
-        <f t="shared" ref="B44:B48" si="1">H12</f>
-        <v>[37668344G&gt;T]</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>[37668344=]</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>People with this variant have one copy of the [G37668344T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1570612) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C47" s="3" t="str">
-        <f>CONCATENATE("    ",B46)</f>
-        <v xml:space="preserve">    People with this variant have one copy of the [G37668344T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1570612) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="21">
-        <f t="shared" si="1"/>
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="C49" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="C51" s="3" t="str">
-        <f>CONCATENATE("    ",B47)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="C53" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="C55" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B48," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=46.2 /&gt;</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="C56" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="9" t="str">
-        <f>H17</f>
-        <v>People with this variant have two copies of the [G37668344T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1570612) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C57" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B43,B44,";",B44,CHAR(34)," name=",CHAR(34),B19,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37668344G&gt;T];[37668344G&gt;T]" name="G37668344T"&gt; </v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="9" t="str">
-        <f t="shared" ref="B58:B59" si="2">H18</f>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="9">
-        <f t="shared" si="2"/>
-        <v>24.7</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="C61" s="3" t="str">
-        <f>CONCATENATE("    ",B57)</f>
-        <v xml:space="preserve">    People with this variant have two copies of the [G37668344T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=1570612) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="C63" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="C65" s="3" t="str">
-        <f>CONCATENATE("    ",B58)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="C67" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="C69" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B59," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=24.7 /&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="C70" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="9" t="str">
-        <f>H20</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="C71" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B43,B45,";",B45,CHAR(34)," name=",CHAR(34),B19,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37668344=];[37668344=]" name="G37668344T"&gt; </v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B72" s="9" t="str">
-        <f t="shared" ref="B72:B73" si="3">H21</f>
-        <v>You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B73" s="9">
-        <f t="shared" si="3"/>
-        <v>29.1</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="C75" s="3" t="str">
-        <f>CONCATENATE("    ",B71)</f>
-        <v xml:space="preserve">    Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="C77" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="C79" s="3" t="str">
-        <f>CONCATENATE("    ",B72)</f>
-        <v xml:space="preserve">    You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="C81" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="C83" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B73," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=29.1 /&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="C84" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="C85" s="3" t="str">
-        <f>C23</f>
-        <v>&lt;# T159323005C #&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="21" t="str">
-        <f>I11</f>
-        <v>NC_000013.11:g.</v>
-      </c>
-      <c r="C86" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B86,B87,";",B88,CHAR(34)," name=",CHAR(34),B25,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37656405G&gt;A];[37656405=]" name="T159323005C"&gt; </v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="21" t="str">
-        <f t="shared" ref="B87:B91" si="4">I12</f>
-        <v>[37656405G&gt;A]</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>[37656405=]</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B89" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>People with this variant have one copy of the [T159323005C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2985167) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C90" s="3" t="str">
-        <f>CONCATENATE("    ",B89)</f>
-        <v xml:space="preserve">    People with this variant have one copy of the [T159323005C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2985167) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B91" s="21">
-        <f t="shared" si="4"/>
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
-      <c r="C92" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="C94" s="3" t="str">
-        <f>CONCATENATE("    ",B90)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
-      <c r="C96" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="C98" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B91," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=49.8 /&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="C99" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" s="9" t="str">
-        <f>I17</f>
-        <v>People with this variant have two copies of the [T159323005C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2985167) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C100" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B86,B87,";",B87,CHAR(34)," name=",CHAR(34),B25,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37656405G&gt;A];[37656405G&gt;A]" name="T159323005C"&gt; </v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B101" s="9" t="str">
-        <f t="shared" ref="B101:B102" si="5">I18</f>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B102" s="9">
-        <f t="shared" si="5"/>
-        <v>34.4</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="C104" s="3" t="str">
-        <f>CONCATENATE("    ",B100)</f>
-        <v xml:space="preserve">    People with this variant have two copies of the [T159323005C](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=2985167) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="C106" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="C108" s="3" t="str">
-        <f>CONCATENATE("    ",B101)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="C110" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="C112" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B102," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=34.4 /&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="C113" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" s="9" t="str">
-        <f>I20</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="C114" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B86,B88,";",B88,CHAR(34)," name=",CHAR(34),B25,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37656405=];[37656405=]" name="T159323005C"&gt; </v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B115" s="9" t="str">
-        <f t="shared" ref="B115:B116" si="6">I21</f>
-        <v>You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B116" s="9">
-        <f t="shared" si="6"/>
-        <v>15.8</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="C118" s="3" t="str">
-        <f>CONCATENATE("    ",B114)</f>
-        <v xml:space="preserve">    Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
-      <c r="C120" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="C122" s="3" t="str">
-        <f>CONCATENATE("    ",B115)</f>
-        <v xml:space="preserve">    You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
-      <c r="C124" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
-      <c r="C126" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B116," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=15.8 /&gt;</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
-      <c r="C127" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="15"/>
-      <c r="C128" s="3" t="str">
-        <f>C29</f>
-        <v>&lt;# G37793875T #&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B129" s="21" t="str">
-        <f>J11</f>
-        <v>NC_000013.11:g.</v>
-      </c>
-      <c r="C129" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B129,B130,";",B131,CHAR(34)," name=",CHAR(34),B31,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37793875G&gt;T];[37793875=]" name="G37793875T"&gt; </v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" s="21" t="str">
-        <f t="shared" ref="B130:B134" si="7">J12</f>
-        <v>[37793875G&gt;T]</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B131" s="21" t="str">
-        <f t="shared" si="7"/>
-        <v>[37793875=]</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B132" s="21" t="str">
-        <f t="shared" si="7"/>
-        <v>People with this variant have one copy of the [G37793875T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=655207) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B133" s="21" t="str">
-        <f t="shared" si="7"/>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C133" s="3" t="str">
-        <f>CONCATENATE("    ",B132)</f>
-        <v xml:space="preserve">    People with this variant have one copy of the [G37793875T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=655207) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="21">
-        <f t="shared" si="7"/>
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="C135" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="C137" s="3" t="str">
-        <f>CONCATENATE("    ",B133)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="C139" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="C141" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B134," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=47.5 /&gt;</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
-      <c r="C142" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B143" s="9" t="str">
-        <f>J17</f>
-        <v>People with this variant have two copies of the [G37793875T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=655207) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C143" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B129,B130,";",B130,CHAR(34)," name=",CHAR(34),B31,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37793875G&gt;T];[37793875G&gt;T]" name="G37793875T"&gt; </v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B144" s="9" t="str">
-        <f t="shared" ref="B144:B145" si="8">J18</f>
-        <v>You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B145" s="9">
-        <f t="shared" si="8"/>
-        <v>26.9</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="8"/>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
-      <c r="C147" s="3" t="str">
-        <f>CONCATENATE("    ",B143)</f>
-        <v xml:space="preserve">    People with this variant have two copies of the [G37793875T](https://www.ncbi.nlm.nih.gov/projects/SNP/snp_ref.cgi?rs=655207) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="8"/>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="C149" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="C151" s="3" t="str">
-        <f>CONCATENATE("    ",B144)</f>
-        <v xml:space="preserve">    You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="C153" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="C155" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B145," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=26.9 /&gt;</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="C156" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B157" s="9" t="str">
-        <f>J20</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="C157" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B129,B131,";",B131,CHAR(34)," name=",CHAR(34),B31,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37793875=];[37793875=]" name="G37793875T"&gt; </v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B158" s="9" t="str">
-        <f t="shared" ref="B158:B159" si="9">J21</f>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B159" s="9">
-        <f t="shared" si="9"/>
-        <v>25.6</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="8"/>
-      <c r="C161" s="3" t="str">
-        <f>CONCATENATE("    ",B157)</f>
-        <v xml:space="preserve">    Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-    </row>
-    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="C163" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
-    </row>
-    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
-      <c r="C165" s="3" t="str">
-        <f>CONCATENATE("    ",B158)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
-    </row>
-    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
-      <c r="C167" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
-      <c r="C169" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B159," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=25.6 /&gt;</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="C170" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
-      <c r="C171" s="3" t="str">
-        <f>C35</f>
-        <v>&lt;# C37793812T #&gt;</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B172" s="21" t="str">
-        <f>K11</f>
-        <v>NC_000013.11:g.</v>
-      </c>
-      <c r="C172" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B172,B173,";",B174,CHAR(34)," name=",CHAR(34),B37,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37793812C&gt;T];[37793812=]" name="C37793812T"&gt; </v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B173" s="21" t="str">
-        <f t="shared" ref="B173:B177" si="10">K12</f>
-        <v>[37793812C&gt;T]</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B174" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>[37793812=]</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B175" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>People with this variant have one copy of the [C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B176" s="21" t="str">
-        <f t="shared" si="10"/>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C176" s="3" t="str">
-        <f>CONCATENATE("    ",B175)</f>
-        <v xml:space="preserve">    People with this variant have one copy of the [C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B177" s="21">
-        <f t="shared" si="10"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
-      <c r="C178" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
-    </row>
-    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
-      <c r="C180" s="3" t="str">
-        <f>CONCATENATE("    ",B176)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-      <c r="C182" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
-    </row>
-    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
-      <c r="C184" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B177," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=48 /&gt;</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="15"/>
-      <c r="C185" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B186" s="9" t="str">
-        <f>K17</f>
-        <v>People with this variant have two copies of the [C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-      <c r="C186" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B172,B173,";",B173,CHAR(34)," name=",CHAR(34),B37,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37793812C&gt;T];[37793812C&gt;T]" name="C37793812T"&gt; </v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B187" s="9" t="str">
-        <f t="shared" ref="B187:B188" si="11">K18</f>
-        <v>You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B188" s="9">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
-    </row>
-    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
-      <c r="C190" s="3" t="str">
-        <f>CONCATENATE("    ",B186)</f>
-        <v xml:space="preserve">    People with this variant have two copies of the [C37793812T](https://www.ncbi.nlm.nih.gov/SNP/snp_ref.cgi?rs=6650469) variant. This substitution of a single nucleotide is known as a missense mutation.</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="8"/>
-    </row>
-    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="8"/>
-      <c r="C192" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="8"/>
-    </row>
-    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="8"/>
-      <c r="C194" s="3" t="str">
-        <f>CONCATENATE("    ",B187)</f>
-        <v xml:space="preserve">    You are in the Moderate Loss of Function category. See below for more information.</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="8"/>
-    </row>
-    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="15"/>
-      <c r="C196" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="15"/>
-    </row>
-    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
-      <c r="C198" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B188," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=28 /&gt;</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
-      <c r="C199" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B200" s="9" t="str">
-        <f>K20</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="C200" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B172,B174,";",B174,CHAR(34)," name=",CHAR(34),B37,CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="NC_000013.11:g.[37793812=];[37793812=]" name="C37793812T"&gt; </v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B201" s="9" t="str">
-        <f t="shared" ref="B201:B202" si="12">K21</f>
-        <v>This variant is not associated with increased risk.</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B202" s="9">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="15"/>
-    </row>
-    <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="8"/>
-      <c r="C204" s="3" t="str">
-        <f>CONCATENATE("    ",B200)</f>
-        <v xml:space="preserve">    Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="8"/>
-    </row>
-    <row r="206" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="8"/>
-      <c r="C206" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="8"/>
-    </row>
-    <row r="208" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="8"/>
-      <c r="C208" s="3" t="str">
-        <f>CONCATENATE("    ",B201)</f>
-        <v xml:space="preserve">    This variant is not associated with increased risk.</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="15"/>
-    </row>
-    <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="15"/>
-      <c r="C210" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="15"/>
-    </row>
-    <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="15"/>
-      <c r="C212" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B202," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=24 /&gt;</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="15"/>
-      <c r="C213" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="15"/>
-      <c r="C214" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B215" s="21">
-        <f>L11</f>
-        <v>0</v>
-      </c>
-      <c r="C215" s="3" t="e">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B215,B216,";",B217,CHAR(34)," name=",CHAR(34),#REF!,CHAR(34),"&gt; ")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B216" s="21">
-        <f t="shared" ref="B216:B220" si="13">L12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B217" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B218" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B219" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="C219" s="3" t="str">
-        <f>CONCATENATE("    ",B218)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B220" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="15"/>
-      <c r="C221" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="8"/>
-    </row>
-    <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="8"/>
-      <c r="C223" s="3" t="str">
-        <f>CONCATENATE("    ",B219)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="8"/>
-    </row>
-    <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="8"/>
-      <c r="C225" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="15"/>
-      <c r="C227" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B220," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=0 /&gt;</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="15"/>
-      <c r="C228" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B229" s="9">
-        <f>L17</f>
-        <v>0</v>
-      </c>
-      <c r="C229" s="3" t="e">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B215,B216,";",B216,CHAR(34)," name=",CHAR(34),#REF!,CHAR(34),"&gt; ")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B230" s="9">
-        <f t="shared" ref="B230:B231" si="14">L18</f>
-        <v>0</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B231" s="9">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="8"/>
-    </row>
-    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="15"/>
-      <c r="C233" s="3" t="str">
-        <f>CONCATENATE("    ",B229)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="8"/>
-      <c r="C235" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="8"/>
-    </row>
-    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="8"/>
-      <c r="C237" s="3" t="str">
-        <f>CONCATENATE("    ",B230)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="8"/>
-    </row>
-    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="15"/>
-      <c r="C239" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="15"/>
-    </row>
-    <row r="241" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="15"/>
-      <c r="C241" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B231," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=0 /&gt;</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="15"/>
-      <c r="C242" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B243" s="9">
-        <f>L20</f>
-        <v>0</v>
-      </c>
-      <c r="C243" s="3" t="e">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B215,B217,";",B217,CHAR(34)," name=",CHAR(34),#REF!,CHAR(34),"&gt; ")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B244" s="9">
-        <f t="shared" ref="B244:B245" si="15">L21</f>
-        <v>0</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B245" s="9">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="15"/>
-    </row>
-    <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="8"/>
-      <c r="C247" s="3" t="str">
-        <f>CONCATENATE("    ",B243)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="8"/>
-    </row>
-    <row r="249" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="8"/>
-      <c r="C249" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="8"/>
-    </row>
-    <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="8"/>
-      <c r="C251" s="3" t="str">
-        <f>CONCATENATE("    ",B244)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="15"/>
-    </row>
-    <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="15"/>
-      <c r="C253" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="15"/>
-    </row>
-    <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="15"/>
-      <c r="C255" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B245," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=0 /&gt;</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="15"/>
-      <c r="C256" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="15"/>
-      <c r="C257" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B258" s="9" t="str">
-        <f>CONCATENATE("Your ",B11," gene has an unknown variant.")</f>
-        <v>Your TRPC4 gene has an unknown variant.</v>
-      </c>
-      <c r="C258" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B259" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="8"/>
-    </row>
-    <row r="262" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="8"/>
-      <c r="C262" s="3" t="str">
-        <f>CONCATENATE("    ",B258)</f>
-        <v xml:space="preserve">    Your TRPC4 gene has an unknown variant.</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="8"/>
-    </row>
-    <row r="264" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="8"/>
-      <c r="C264" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="8"/>
-    </row>
-    <row r="266" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="15"/>
-      <c r="C266" s="3" t="str">
-        <f>CONCATENATE("    ",B259)</f>
-        <v xml:space="preserve">    The effect is unknown.</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="8"/>
-    </row>
-    <row r="268" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="15"/>
-      <c r="C268" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="15"/>
-    </row>
-    <row r="270" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="15"/>
-      <c r="C270" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B260," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="15"/>
-      <c r="C271" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="15"/>
-      <c r="C272" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B273" s="9" t="str">
-        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
-        <v>Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="C273" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B274" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="8"/>
-    </row>
-    <row r="277" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="8"/>
-      <c r="C277" s="3" t="str">
-        <f>CONCATENATE("    ",B273)</f>
-        <v xml:space="preserve">    Your TRPC4 gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="8"/>
-    </row>
-    <row r="279" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="8"/>
-      <c r="C279" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="8"/>
-    </row>
-    <row r="281" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="8"/>
-      <c r="C281" s="3" t="str">
-        <f>CONCATENATE("    ",B274)</f>
-        <v xml:space="preserve">    Your variant is not associated with any loss of function.</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="8"/>
-    </row>
-    <row r="283" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A283" s="8"/>
-      <c r="C283" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
-    </row>
-    <row r="285" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="8"/>
-      <c r="C285" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B275," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="8"/>
-      <c r="C286" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="8"/>
-      <c r="C287" s="3" t="str">
-        <f>"&lt;/GeneAnalysis&gt;"</f>
-        <v>&lt;/GeneAnalysis&gt;</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="27"/>
-      <c r="B288" s="17"/>
-    </row>
-    <row r="289" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="15"/>
-      <c r="C289" s="3" t="str">
-        <f>CONCATENATE("# How do changes in ",B11," affect people?")</f>
-        <v># How do changes in TRPC4 affect people?</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="15"/>
-    </row>
-    <row r="291" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A291" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B291" s="9" t="str">
-        <f>CONCATENATE("For the vast majority of people, the overall risk associated with the common ",B11," variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.")</f>
-        <v>For the vast majority of people, the overall risk associated with the common TRPC4 variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.</v>
-      </c>
-      <c r="C291" s="3" t="str">
-        <f>B291</f>
-        <v>For the vast majority of people, the overall risk associated with the common TRPC4 variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="15"/>
-    </row>
-    <row r="293" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="27"/>
-      <c r="B293" s="17"/>
-      <c r="C293" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A294" s="27"/>
-      <c r="B294" s="17"/>
-      <c r="C294" s="16"/>
-    </row>
-    <row r="295" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A295" s="16"/>
-      <c r="B295" s="17"/>
-      <c r="C295" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="16"/>
-      <c r="B296" s="17"/>
-      <c r="C296" s="16"/>
-    </row>
-    <row r="297" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="15"/>
-      <c r="C297" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="15"/>
-    </row>
-    <row r="299" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A299" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C299" s="3" t="str">
-        <f>B299</f>
-        <v>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NK cells with lower functional ability to fight infections, and [this impairment is associated with illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have half the cellular efficiency with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524). In CFS patients, TRPM3 variants cause [incorrect cell surface expression in NKC, as well as decreased intracellular calcium](https://www.ncbi.nlm.nih.gov/pubmed/27245705).
-The following variants decrease gene expression in both the DNA and RNA, causing significant reduction in NKC activity.
-- [T71365306C (C;C)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [2.2X] more common in CFS patients. 
-- [G71427327T (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [1.7X] more common in CFS patients. 
-- [C71402258T (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [3.7X] more common in CFS patients. 
-- [C71403580T (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [3.5X] more common in CFS patients. 
-- [T71417232G (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [3X] more common in CFS patients. 
-- [T70790948C (T;C)](https://www.ncbi.nlm.nih.gov/pubmed/27835969) is [2.6X] more common in CFS patients. 
-- [T70790948C (C;C)](https://www.ncbi.nlm.nih.gov/pubmed/27835969) is [1.2X] more common in CFS patients. 
-- [G70820112A (G;G)](https://www.ncbi.nlm.nih.gov/pubmed/27835969) is [1.4X] more common in CFS patients. 
-- [C70616746T (C;C)](http://journals.sagepub.com/doi/pdf/10.4137/III.S37042) is [2.5X] more common in CFS patients. 
-- [A70605775G (A;A)](http://journals.sagepub.com/doi/pdf/10.4137/III.S37042) is [2.7X] more common in CFS patients. 
-- [T70610886A (A;A)](http://journals.sagepub.com/doi/pdf/10.4137/III.S37042) is [2.2X] more common in CFS patients.</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A300" s="15"/>
-    </row>
-    <row r="301" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A301" s="15"/>
-      <c r="C301" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A302" s="15"/>
-    </row>
-    <row r="303" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B303" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C303" s="3" t="str">
-        <f>B303</f>
-        <v>Some pharmaceuticals may increase or decrease natural killer cell function:
-- [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided. 
-- [Acyclovir, ganciclovir, and related prophylactic antiviral drugs](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
-- [Therapies for papillomaviruses, topical agents, physical approaches and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
-- [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC cytotoxic activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
-- Consider the [HPV vaccine](https://www.ncbi.nlm.nih.gov/pubmed/23993353) as issues with natural killer cells cause higher susceptibility. 
-Many dietary supplements have been found to increase natural killer cell function:
-- [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) stimulates the immune system by increasing NKC activity, but sufficient body concentration can only be achieved through supplementation. 
-- [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), a flavonoid found in food and red wine, can increase NKC activity. 
-- [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), a flavonoid in onions and fruits, may improve NKC and T cell function. 
-- [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726) 
-- [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response. 
-- [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
-- [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity.</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A304" s="15"/>
-    </row>
-    <row r="305" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="27"/>
-      <c r="B305" s="17"/>
-      <c r="C305" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A306" s="27"/>
-      <c r="B306" s="17"/>
-      <c r="C306" s="16"/>
-    </row>
-    <row r="307" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A307" s="16"/>
-      <c r="B307" s="17"/>
-      <c r="C307" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="16"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="16"/>
-    </row>
-    <row r="309" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A309" s="15"/>
-      <c r="C309" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="15"/>
-    </row>
-    <row r="311" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A311" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C311" s="3" t="str">
-        <f>B311</f>
-        <v>Calcium mobilization into white blood cells is reduced by the A70822908G (A;G) variant, which may cause increased immune system dysfunction, such as improper development of antibodies and increased symptom severity. This variant is [2.2X](https://www.ncbi.nlm.nih.gov/pubmed/27834303) more common in CFS patients compared to the general population.</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A312" s="15"/>
-    </row>
-    <row r="313" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="15"/>
-      <c r="C313" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="15"/>
-    </row>
-    <row r="315" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A315" s="15"/>
-      <c r="B315" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C315" s="3" t="str">
-        <f>B315</f>
-        <v>[Anti-CD20 intervention](https://www.ncbi.nlm.nih.gov/pubmed/27834303) may help CFS patients, and has shown to increase muscarinic antibody positivity and reduced symptoms.</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A317" s="27"/>
-      <c r="B317" s="17"/>
-      <c r="C317" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A318" s="27"/>
-      <c r="B318" s="17"/>
-      <c r="C318" s="16"/>
-    </row>
-    <row r="319" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="16"/>
-      <c r="B319" s="17"/>
-      <c r="C319" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="16"/>
-      <c r="B320" s="17"/>
-      <c r="C320" s="16"/>
-    </row>
-    <row r="321" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="15"/>
-      <c r="C321" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="15"/>
-    </row>
-    <row r="323" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C323" s="3" t="str">
-        <f>B323</f>
-        <v>Biological processes responsible for the varied symptoms reported for [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) may involve ion channels and receptors that are located on cells throughout the body. These channels maintain homeostasis, and incorrect function has been linked to [chronic pain, overactive bladder, diabetes, chronic obstructive pulmonary disease, cardiac hypertrophy, familial Alzheimer’s disease, skin diseases, neuropathy, and cancer](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In CFS patients, TRP channels are targeted during inflammatory reactions, and may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147).
-TRPM3 channels transport calcium and zinc and incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), inflammatory pain syndromes, rheumatoid arthritis, and secretion of proinflammatory cytokines, as well as [insulin and glucose dysregulation in CFS patients](http://jme.endocrinology-journals.org/content/50/3/R75.short). These channels help detect heat and pain transmission, and dysregulation may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in CFS patients.
-These TRPM3 variants are more common in CFS patients versus the general population.
-- [A70699095G](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [T70795494C](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.75X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [C70801146T](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.75X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [A70610886C](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [G70589515A](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [C71302037T](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.7X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [C70691635A](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.3X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common.</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A324" s="15"/>
-    </row>
-    <row r="325" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A325" s="15"/>
-      <c r="C325" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="15"/>
-    </row>
-    <row r="327" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="15"/>
-      <c r="B327" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C327" s="3" t="str">
-        <f>B327</f>
-        <v>CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
-Chronic pain relief may include:
-- [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
-- [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
-- [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
-- [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="27"/>
-      <c r="B329" s="17"/>
-      <c r="C329" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="27"/>
-      <c r="B330" s="17"/>
-      <c r="C330" s="16"/>
-    </row>
-    <row r="331" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A331" s="16"/>
-      <c r="B331" s="17"/>
-      <c r="C331" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="16"/>
-      <c r="B332" s="17"/>
-      <c r="C332" s="16"/>
-    </row>
-    <row r="333" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="15"/>
-      <c r="C333" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="15"/>
-    </row>
-    <row r="335" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B335" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C335" s="3" t="str">
-        <f>B335</f>
-        <v>This variant causes [retinal dystrophy and iris coloboma with or without congenital cataract](https://www.ncbi.nlm.nih.gov/clinvar/variation/218881/). Abnormalities include [adhesions between the iris and lens](https://www.ncbi.nlm.nih.gov/medgen/488784), [visual impairment or vision loss](https://www.ncbi.nlm.nih.gov/medgen/65889), and [retinal atrophy](https://www.ncbi.nlm.nih.gov/medgen/101075). It may also cause [decreased color vision, degradation of retinal veins, and congenital cataracts](http://www.malacards.org/card/retinal_dystrophy_and_iris_coloboma_with_or_without_congenital_cataract).</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="15"/>
-    </row>
-    <row r="337" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="15"/>
-      <c r="C337" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="15"/>
-    </row>
-    <row r="339" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="15"/>
-      <c r="B339" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C339" s="3" t="str">
-        <f>B339</f>
-        <v>Symptoms may improve after removal of cataracts, and should be monitored carefully to prevent further lens and iris adhesion due to [incorrect surgery](https://www.ncbi.nlm.nih.gov/pubmed/19246951).</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B341" s="17"/>
-    </row>
-    <row r="343" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A343" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C343" s="3" t="str">
-        <f>CONCATENATE("&lt;symptoms ",B343," /&gt;")</f>
-        <v>&lt;symptoms  vision problems D014786 pain D010146 chills and night sweats D023341 multiple chemical sensitivity/allergies D018777 inflamation D007249 /&gt;</v>
-      </c>
-    </row>
-    <row r="1015" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1015" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1006," gene from ",B1015," to ",B1016," resulting in incorrect ",B1009," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1021" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1021" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1006," gene from ",B1021," to ",B1022," resulting in incorrect ",B1009," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1151" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1151" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1142," gene from ",B1151," to ",B1152," resulting in incorrect ",B1145," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1157" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1157" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1142," gene from ",B1157," to ",B1158," resulting in incorrect ",B1145," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1559" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1559" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1550," gene from ",B1559," to ",B1560," resulting in incorrect ",B1553," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1565" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1565" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1550," gene from ",B1565," to ",B1566," resulting in incorrect ",B1553," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1695" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1695" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1686," gene from ",B1695," to ",B1696," resulting in incorrect ",B1689," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1701" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1701" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1686," gene from ",B1701," to ",B1702," resulting in incorrect ",B1689," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1831" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1831" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1822," gene from ",B1831," to ",B1832," resulting in incorrect ",B1825," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1837" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1837" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1822," gene from ",B1837," to ",B1838," resulting in incorrect ",B1825," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1967" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1967" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1958," gene from ",B1967," to ",B1968," resulting in incorrect ",B1961," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="1973" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1973" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1958," gene from ",B1973," to ",B1974," resulting in incorrect ",B1961," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2103" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2103" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2094," gene from ",B2103," to ",B2104," resulting in incorrect ",B2097," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2109" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2109" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2094," gene from ",B2109," to ",B2110," resulting in incorrect ",B2097," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2239" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2239" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2230," gene from ",B2239," to ",B2240," resulting in incorrect ",B2233," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2245" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2245" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2230," gene from ",B2245," to ",B2246," resulting in incorrect ",B2233," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2375" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2375" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2366," gene from ",B2375," to ",B2376," resulting in incorrect ",B2369," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2381" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2381" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2366," gene from ",B2381," to ",B2382," resulting in incorrect ",B2369," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2511" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2511" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2502," gene from ",B2511," to ",B2512," resulting in incorrect ",B2505," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2517" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2517" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2502," gene from ",B2517," to ",B2518," resulting in incorrect ",B2505," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
-      </c>
-    </row>
-    <row r="2522" spans="3:3" ht="15.75" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645CFC69-4513-41EC-918C-B55259FAE93A}">
   <dimension ref="A1:AJ2327"/>
   <sheetViews>
@@ -17278,7 +14215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B69D034-728D-4321-8648-869D93801596}">
   <dimension ref="A1:AJ2474"/>
   <sheetViews>
@@ -20071,11 +17008,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE95C080-F7E3-4876-9655-BA4DCF4AF34A}">
   <dimension ref="A1:AJ2327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -21690,7 +18627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9AF40C-70A1-465B-815E-4341911AEF16}">
   <dimension ref="A1:AJ2425"/>
   <sheetViews>
@@ -24091,12 +21028,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F4AA5F-388B-43B4-92AF-AA30CA4C21B4}">
-  <dimension ref="A1:AJ2419"/>
+  <dimension ref="A1:AJ2352"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24200,10 +21137,12 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="3">
+      <c r="B4" s="33" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="3" t="str">
         <f>B4</f>
-        <v>0</v>
+        <v>IFNG [(Interferon gamma)](http://www.uniprot.org/uniprot/P01579) encodes a cytokine, also known as a small protein, that is involved in cell signaling and immunomodulating. The INF-gamma cytokine is produced by lymphocytes (a type of white blood cell) when activated by antigens such as viruses or microbial infections. It has antiviral properties, immunoregulatory functions, and antitumor effects. Variations in this gene are associated with autoimmune disorders including [systemic lupus erythematosus](https://www.ncbi.nlm.nih.gov/pubmed/19919944), [increased susceptibility to viral, bacterial, and parasitical infections](https://www.ncbi.nlm.nih.gov/gene/3458) such as [tuberculosis](https://www.ncbi.nlm.nih.gov/pubmed/24529854), [asthma](https://www.ncbi.nlm.nih.gov/pubmed/18385742), [aplastic anemia](http://www.uniprot.org/citations/15327519), [increased progression of acquired immunodeficiency syndrome](https://www.ncbi.nlm.nih.gov/pubmed/12854077) and [ME/CFS]( https://www.ncbi.nlm.nih.gov/pubmed/26063326).</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
@@ -24665,11 +21604,11 @@
         <v>31</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="str">
         <f>CONCATENATE("    This variant is a change at a specific point in the ",B11," gene from ",B20," to ",B21," resulting in incorrect ",B7," function. This substitution of a single nucleotide is known as a missense variant.")</f>
-        <v xml:space="preserve">    This variant is a change at a specific point in the IFNG gene from adenine (A) to guanine (G) resulting in incorrect protein function. This substitution of a single nucleotide is known as a missense variant.</v>
+        <v xml:space="preserve">    This variant is a change at a specific point in the IFNG gene from thymine (T) to cytosine (C) resulting in incorrect protein function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
       <c r="H20" s="9" t="str">
         <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
@@ -24702,7 +21641,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>28</v>
@@ -25431,81 +22370,57 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
-      <c r="C116" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="C116" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="39">
-        <f>J11</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="3" t="e">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B117,B118,";",B119,CHAR(34)," name=",CHAR(34),#REF!,CHAR(34),"&gt; ")</f>
-        <v>#REF!</v>
+        <v>49</v>
+      </c>
+      <c r="B117" s="34" t="str">
+        <f>CONCATENATE("Your ",B11," gene has an unknown variant.")</f>
+        <v>Your IFNG gene has an unknown variant.</v>
+      </c>
+      <c r="C117" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118" s="39">
-        <f t="shared" ref="B118:B122" si="7">J12</f>
-        <v>0</v>
+      <c r="A118" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B119" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="A119" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B120" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A120" s="8"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B121" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="A121" s="8"/>
       <c r="C121" s="3" t="str">
-        <f>CONCATENATE("    ",B120)</f>
-        <v xml:space="preserve">    0</v>
+        <f>CONCATENATE("    ",B117)</f>
+        <v xml:space="preserve">    Your IFNG gene has an unknown variant.</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B122" s="39">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="A122" s="8"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="15"/>
+      <c r="A123" s="8"/>
       <c r="C123" s="3" t="s">
         <v>42</v>
       </c>
@@ -25514,17 +22429,17 @@
       <c r="A124" s="8"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+      <c r="A125" s="15"/>
       <c r="C125" s="3" t="str">
-        <f>CONCATENATE("    ",B121)</f>
-        <v xml:space="preserve">    0</v>
+        <f>CONCATENATE("    ",B118)</f>
+        <v xml:space="preserve">    The effect is unknown.</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
+      <c r="A127" s="15"/>
       <c r="C127" s="3" t="s">
         <v>43</v>
       </c>
@@ -25535,8 +22450,8 @@
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="C129" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B122," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=0 /&gt;</v>
+        <f>CONCATENATE( "    &lt;piechart percentage=",B119," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -25547,263 +22462,247 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="34">
-        <f>J17</f>
-        <v>0</v>
-      </c>
-      <c r="C131" s="3" t="e">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B117,B118,";",B118,CHAR(34)," name=",CHAR(34),#REF!,CHAR(34),"&gt; ")</f>
-        <v>#REF!</v>
+      <c r="A131" s="15"/>
+      <c r="C131" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B132" s="34">
-        <f t="shared" ref="B132:B133" si="8">J18</f>
-        <v>0</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>26</v>
+      <c r="A132" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B132" s="34" t="str">
+        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
+        <v>Your IFNG gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
+      <c r="C132" s="3" t="str">
+        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
+        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B133" s="34">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="8"/>
-    </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="C135" s="3" t="str">
-        <f>CONCATENATE("    ",B131)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
+      <c r="A135" s="8"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
+      <c r="C136" s="3" t="str">
+        <f>CONCATENATE("    ",B132)</f>
+        <v xml:space="preserve">    Your IFNG gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
-      <c r="C137" s="3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
+      <c r="C138" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
-      <c r="C139" s="3" t="str">
-        <f>CONCATENATE("    ",B132)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
+      <c r="C140" s="3" t="str">
+        <f>CONCATENATE("    ",B133)</f>
+        <v xml:space="preserve">    Your variant is not associated with any loss of function.</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="15"/>
-      <c r="C141" s="3" t="s">
+      <c r="A141" s="8"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="8"/>
+      <c r="C142" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
-      <c r="C143" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B133," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=0 /&gt;</v>
-      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
+      <c r="A144" s="8"/>
       <c r="C144" s="3" t="str">
+        <f>CONCATENATE( "    &lt;piechart percentage=",B134," /&gt;")</f>
+        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="8"/>
+      <c r="C145" s="3" t="str">
         <f>"  &lt;/Genotype&gt;"</f>
         <v xml:space="preserve">  &lt;/Genotype&gt;</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B145" s="34">
-        <f>J20</f>
-        <v>0</v>
-      </c>
-      <c r="C145" s="3" t="e">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),B117,B119,";",B119,CHAR(34)," name=",CHAR(34),#REF!,CHAR(34),"&gt; ")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B146" s="34">
-        <f t="shared" ref="B146:B147" si="9">J21</f>
-        <v>0</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B147" s="34">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A146" s="8"/>
+      <c r="C146" s="3" t="str">
+        <f>"&lt;/GeneAnalysis&gt;"</f>
+        <v>&lt;/GeneAnalysis&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="27"/>
+      <c r="B147" s="37"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
+      <c r="C148" s="3" t="str">
+        <f>CONCATENATE("# How do changes in ",B11," affect people?")</f>
+        <v># How do changes in IFNG affect people?</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="8"/>
-      <c r="C149" s="3" t="str">
-        <f>CONCATENATE("    ",B145)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
+      <c r="A149" s="15"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="8"/>
+      <c r="A150" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B150" s="34" t="str">
+        <f>CONCATENATE("For the vast majority of people, the overall risk associated with the common ",B11," variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.")</f>
+        <v>For the vast majority of people, the overall risk associated with the common IFNG variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.</v>
+      </c>
+      <c r="C150" s="3" t="str">
+        <f>B150</f>
+        <v>For the vast majority of people, the overall risk associated with the common IFNG variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="8"/>
-      <c r="C151" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="8"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="8"/>
-      <c r="C153" s="3" t="str">
-        <f>CONCATENATE("    ",B146)</f>
-        <v xml:space="preserve">    0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="C155" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A151" s="15"/>
+    </row>
+    <row r="152" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="27"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="27"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="16"/>
+    </row>
+    <row r="154" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="16" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="16"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
+      <c r="C156" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
-      <c r="C157" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B147," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage=0 /&gt;</v>
-      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
+      <c r="A158" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>494</v>
+      </c>
       <c r="C158" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
+        <f>B158</f>
+        <v>This variant causes increased IFN-gamma production in natural killer cells and T-cells, which decreases CD-4 counts and impairs the ability of the immune system to recognize and fight viruses. Elevated expression of IFNG has been associated with [systemic lupus erythematosus](https://www.ncbi.nlm.nih.gov/pubmed/19919944), with this variant being marginally correlated. Due to the reduced efficiency of the immune system, The CT and TT variants significantly associated with [tuberculosis](https://www.ncbi.nlm.nih.gov/pubmed/24529854),  [pulmonary tuberculosis](https://www.ncbi.nlm.nih.gov/pubmed/28867622), [asthma](https://www.ncbi.nlm.nih.gov/pubmed/18385742) and [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/26063326).</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
-      <c r="C159" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B160" s="34" t="str">
-        <f>CONCATENATE("Your ",B11," gene has an unknown variant.")</f>
-        <v>Your IFNG gene has an unknown variant.</v>
-      </c>
-      <c r="C160" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"unknown",CHAR(34),"&gt; ")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="unknown"&gt; </v>
+      <c r="A160" s="15"/>
+      <c r="C160" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B161" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="A161" s="15"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>38</v>
+      <c r="B162" s="34" t="s">
+        <v>495</v>
+      </c>
+      <c r="C162" s="3" t="str">
+        <f>B162</f>
+        <v>People should consider regular bloodwork to check levels of white blood cells. Be aware of your susceptibility to TB and avoid infectious areas and patients.  [Medications](http://www.uniprot.org/uniprot/P01579) used for IFNG variants include: [Apremilast](https://www.drugbank.ca/drugs/DB05676), [Fontolizumab](https://www.drugbank.ca/drugs/DB05111), [Glucosamine](https://www.drugbank.ca/drugs/DB01296), [Olsalazine](https://www.drugbank.ca/drugs/DB01250), and [VIR201](https://www.drugbank.ca/drugs/DB05110).</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="8"/>
-      <c r="C164" s="3" t="str">
-        <f>CONCATENATE("    ",B160)</f>
-        <v xml:space="preserve">    Your IFNG gene has an unknown variant.</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="8"/>
-      <c r="C166" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="8"/>
+      <c r="A163" s="15"/>
+    </row>
+    <row r="164" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="27"/>
+      <c r="B164" s="37"/>
+      <c r="C164" s="16" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="27"/>
+      <c r="B165" s="37"/>
+      <c r="C165" s="16"/>
+    </row>
+    <row r="166" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="37"/>
+      <c r="C166" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="16"/>
+      <c r="B167" s="37"/>
+      <c r="C167" s="16"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
-      <c r="C168" s="3" t="str">
-        <f>CONCATENATE("    ",B161)</f>
-        <v xml:space="preserve">    The effect is unknown.</v>
+      <c r="C168" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="8"/>
+      <c r="A169" s="15"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="15"/>
-      <c r="C170" s="3" t="s">
-        <v>43</v>
+      <c r="A170" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B170" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="C170" s="3" t="str">
+        <f>B170</f>
+        <v>This pathogenic, or disease causing variant, is associated with [rapid progression to acquired immunodeficiency syndrome](https://www.ncbi.nlm.nih.gov/medgen/C4016227).  The -179T allele is a risk factor, as IFN-gamma production is increased, causing CD4 cell depletion. This reduction weakens the immune system and [hastens the onset of AIDS after infection with HIV](https://www.ncbi.nlm.nih.gov/pubmed/16724074).</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -25811,589 +22710,155 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="15"/>
-      <c r="C172" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B162," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
+      <c r="C172" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="15"/>
-      <c r="C173" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="15"/>
-      <c r="C174" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B175" s="34" t="str">
-        <f>CONCATENATE("Your ",B11," gene has no variants. A normal gene is referred to as a ",CHAR(34),"wild-type",CHAR(34)," gene.")</f>
-        <v>Your IFNG gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-      <c r="C175" s="3" t="str">
-        <f>CONCATENATE("  &lt;Genotype hgvs=",CHAR(34),"wildtype",CHAR(34),"&gt;")</f>
-        <v xml:space="preserve">  &lt;Genotype hgvs="wildtype"&gt;</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B176" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B174" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" s="3" t="str">
+        <f>B174</f>
+        <v>People who are HIV positive should carefully monitor CD4 levels. [Medications](http://www.uniprot.org/uniprot/P01579) used for IFNG variants include: [Apremilast](https://www.drugbank.ca/drugs/DB05676), [Fontolizumab](https://www.drugbank.ca/drugs/DB05111), [Glucosamine](https://www.drugbank.ca/drugs/DB01296), [Olsalazine](https://www.drugbank.ca/drugs/DB01250), and [VIR201](https://www.drugbank.ca/drugs/DB05110).</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="37"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="8"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="8"/>
-      <c r="C179" s="3" t="str">
-        <f>CONCATENATE("    ",B175)</f>
-        <v xml:space="preserve">    Your IFNG gene has no variants. A normal gene is referred to as a "wild-type" gene.</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="8"/>
-      <c r="C181" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="8"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="8"/>
-      <c r="C183" s="3" t="str">
-        <f>CONCATENATE("    ",B176)</f>
-        <v xml:space="preserve">    Your variant is not associated with any loss of function.</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="8"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
-      <c r="C185" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="8"/>
-      <c r="C187" s="3" t="str">
-        <f>CONCATENATE( "    &lt;piechart percentage=",B177," /&gt;")</f>
-        <v xml:space="preserve">    &lt;piechart percentage= /&gt;</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
-      <c r="C188" s="3" t="str">
-        <f>"  &lt;/Genotype&gt;"</f>
-        <v xml:space="preserve">  &lt;/Genotype&gt;</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="8"/>
-      <c r="C189" s="3" t="str">
-        <f>"&lt;/GeneAnalysis&gt;"</f>
-        <v>&lt;/GeneAnalysis&gt;</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="27"/>
-      <c r="B190" s="37"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
-      <c r="C191" s="3" t="str">
-        <f>CONCATENATE("# How do changes in ",B11," affect people?")</f>
-        <v># How do changes in IFNG affect people?</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="15"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B193" s="34" t="str">
-        <f>CONCATENATE("For the vast majority of people, the overall risk associated with the common ",B11," variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.")</f>
-        <v>For the vast majority of people, the overall risk associated with the common IFNG variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.</v>
-      </c>
-      <c r="C193" s="3" t="str">
-        <f>B193</f>
-        <v>For the vast majority of people, the overall risk associated with the common IFNG variants is small and does not impact treatment. It is possible that variants in this gene interact with other gene variants, which is the reason for our inclusion of this gene.</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="15"/>
-    </row>
-    <row r="195" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="27"/>
-      <c r="B195" s="37"/>
-      <c r="C195" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="27"/>
-      <c r="B196" s="37"/>
-      <c r="C196" s="16"/>
-    </row>
-    <row r="197" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
-      <c r="B197" s="37"/>
-      <c r="C197" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
-      <c r="B198" s="37"/>
-      <c r="C198" s="16"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
-      <c r="C199" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="15"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B201" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C201" s="3" t="str">
-        <f>B201</f>
-        <v>Natural killer cells (NKC) are a type of white blood cells found in the blood, bone marrow, spleen, and lymph nodes. They kill viral infected cells and tumorous cells. Many patients with ME/CFS have NK cells with lower functional ability to fight infections, and [this impairment is associated with illness severity](https://www.cdc.gov/me-cfs/about/possible-causes.html). Compared with the general population, CFS patients have half the cellular efficiency with a [17% cellular death rate](https://www.ncbi.nlm.nih.gov/pubmed/27099524). In CFS patients, TRPM3 variants cause [incorrect cell surface expression in NKC, as well as decreased intracellular calcium](https://www.ncbi.nlm.nih.gov/pubmed/27245705).
-The following variants decrease gene expression in both the DNA and RNA, causing significant reduction in NKC activity.
-- [T71365306C (C;C)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [2.2X] more common in CFS patients. 
-- [G71427327T (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [1.7X] more common in CFS patients. 
-- [C71402258T (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [3.7X] more common in CFS patients. 
-- [C71403580T (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [3.5X] more common in CFS patients. 
-- [T71417232G (T;T)](https://www.ncbi.nlm.nih.gov/pubmed/27099524) is [3X] more common in CFS patients. 
-- [T70790948C (T;C)](https://www.ncbi.nlm.nih.gov/pubmed/27835969) is [2.6X] more common in CFS patients. 
-- [T70790948C (C;C)](https://www.ncbi.nlm.nih.gov/pubmed/27835969) is [1.2X] more common in CFS patients. 
-- [G70820112A (G;G)](https://www.ncbi.nlm.nih.gov/pubmed/27835969) is [1.4X] more common in CFS patients. 
-- [C70616746T (C;C)](http://journals.sagepub.com/doi/pdf/10.4137/III.S37042) is [2.5X] more common in CFS patients. 
-- [A70605775G (A;A)](http://journals.sagepub.com/doi/pdf/10.4137/III.S37042) is [2.7X] more common in CFS patients. 
-- [T70610886A (A;A)](http://journals.sagepub.com/doi/pdf/10.4137/III.S37042) is [2.2X] more common in CFS patients.</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="15"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="15"/>
-      <c r="C203" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="15"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C205" s="3" t="str">
-        <f>B205</f>
-        <v>Some pharmaceuticals may increase or decrease natural killer cell function:
-- [Histone deacetylase inhibitors (HDACi), including suberoylanilide hydroxamic acid and valproic acid,](https://www.ncbi.nlm.nih.gov/pubmed/17349632/) impair NKC function and should be avoided. 
-- [Acyclovir, ganciclovir, and related prophylactic antiviral drugs](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may improve cellular function. 
-- [Therapies for papillomaviruses, topical agents, physical approaches and immunostimulants,](https://www.ncbi.nlm.nih.gov/pubmed/23993353) may activate NK cells. 
-- [Cytokine therapies](https://www.ncbi.nlm.nih.gov/pubmed/23993353), such as [IFN-α](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet) in CNKD1, may induce higher levels of NKC cytotoxic activity by [activating white blood cells](https://www.cancer.gov/about-cancer/treatment/types/immunotherapy/bio-therapies-fact-sheet). 
-- Consider the [HPV vaccine](https://www.ncbi.nlm.nih.gov/pubmed/23993353) as issues with natural killer cells cause higher susceptibility. 
-Many dietary supplements have been found to increase natural killer cell function:
-- [Resveratrol](https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4855330/) stimulates the immune system by increasing NKC activity, but sufficient body concentration can only be achieved through supplementation. 
-- [Myricetin](https://www.ncbi.nlm.nih.gov/pubmed/25075019), a flavonoid found in food and red wine, can increase NKC activity. 
-- [Quercetin](https://www.ncbi.nlm.nih.gov/pubmed/19449452), a flavonoid in onions and fruits, may improve NKC and T cell function. 
-- [Bulgarian yogurt fermented with L. delbrueckii ssp. Bulgaricus augments NKC activity.](https://www.ncbi.nlm.nih.gov/pubmed/26686726) 
-- [Zinc](https://www.ncbi.nlm.nih.gov/pubmed/27021581) helps to improve immune system activity and response. 
-- [Inositol hexaphosphate (IP6), found in germ, bran, and whole kernel corn](https://www.ncbi.nlm.nih.gov/pubmed/11366552) may activate the immune system and help fight bacterial and fungal infections. 
-- [Arabinoxylan rice bran (MGN-3/Biobran](https://www.ncbi.nlm.nih.gov/pubmed/25541298) increases activation and stimulates cell killing activity.</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="15"/>
-    </row>
-    <row r="207" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="27"/>
-      <c r="B207" s="37"/>
-      <c r="C207" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="27"/>
-      <c r="B208" s="37"/>
-      <c r="C208" s="16"/>
-    </row>
-    <row r="209" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="16"/>
-      <c r="B209" s="37"/>
-      <c r="C209" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="16"/>
-      <c r="B210" s="37"/>
-      <c r="C210" s="16"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="15"/>
-      <c r="C211" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="15"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B213" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C213" s="3" t="str">
-        <f>B213</f>
-        <v>Calcium mobilization into white blood cells is reduced by the A70822908G (A;G) variant, which may cause increased immune system dysfunction, such as improper development of antibodies and increased symptom severity. This variant is [2.2X](https://www.ncbi.nlm.nih.gov/pubmed/27834303) more common in CFS patients compared to the general population.</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="15"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="15"/>
-      <c r="C215" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="15"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="15"/>
-      <c r="B217" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C217" s="3" t="str">
-        <f>B217</f>
-        <v>[Anti-CD20 intervention](https://www.ncbi.nlm.nih.gov/pubmed/27834303) may help CFS patients, and has shown to increase muscarinic antibody positivity and reduced symptoms.</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="27"/>
-      <c r="B219" s="37"/>
-      <c r="C219" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="27"/>
-      <c r="B220" s="37"/>
-      <c r="C220" s="16"/>
-    </row>
-    <row r="221" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="16"/>
-      <c r="B221" s="37"/>
-      <c r="C221" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="16"/>
-      <c r="B222" s="37"/>
-      <c r="C222" s="16"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="15"/>
-      <c r="C223" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="15"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B225" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C225" s="3" t="str">
-        <f>B225</f>
-        <v>Biological processes responsible for the varied symptoms reported for [ME/CFS](https://www.ncbi.nlm.nih.gov/pubmed/27835969) may involve ion channels and receptors that are located on cells throughout the body. These channels maintain homeostasis, and incorrect function has been linked to [chronic pain, overactive bladder, diabetes, chronic obstructive pulmonary disease, cardiac hypertrophy, familial Alzheimer’s disease, skin diseases, neuropathy, and cancer](https://www.ncbi.nlm.nih.gov/pubmed/27835969). In CFS patients, TRP channels are targeted during inflammatory reactions, and may play a role in [multiple chemical sensitivity (MCS)](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147).
-TRPM3 channels transport calcium and zinc and incorrect function has been linked to [cataracts, glaucoma](https://link.springer.com/chapter/10.1007/978-3-642-54215-2_17), inflammatory pain syndromes, rheumatoid arthritis, and secretion of proinflammatory cytokines, as well as [insulin and glucose dysregulation in CFS patients](http://jme.endocrinology-journals.org/content/50/3/R75.short). These channels help detect heat and pain transmission, and dysregulation may lead to [generalized pain and central nervous system impairments without tissue damage](https://link.springer.com/article/10.1007/s10067-006-0433-9). [Incorrect thermoregulatory responses, including significantly more shivering, sweating, sudden change of skin color, and feeling unusually warm,](http://pediatrics.aappublications.org/content/120/1/e129.short) have been reported in CFS patients.
-These TRPM3 variants are more common in CFS patients versus the general population.
-- [A70699095G](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [T70795494C](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.75X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [C70801146T](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.75X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [A70610886C](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [G70589515A](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.4X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [C71302037T](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.7X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common. 
-- [C70691635A](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) is [1.3X](http://journals.sagepub.com/doi/pdf/10.4137/III.S25147) more common.</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="15"/>
-      <c r="C227" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="15"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="15"/>
-      <c r="B229" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C229" s="3" t="str">
-        <f>B229</f>
-        <v>CFS patients should be aware of their difficulty in maintaining a stable body temperature and avoid large temperature swings. Blood sugar should be checked regularly to avoid insulin and blood sugar issues.
-Chronic pain relief may include:
-- [Nonsteroidal anti-inflammatory drugs](https://www.ncbi.nlm.nih.gov/pubmed/14997317/) 
-- [Tricyclic antidepressants](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
-- [Gabapentin, duloxetine, or pregabalin](https://www.ncbi.nlm.nih.gov/pubmed/19410099/) 
-- [Multidisciplinary pain management programs](https://www.ncbi.nlm.nih.gov/pubmed/22550986), such as [cognitive behavioral therapy](https://www.ncbi.nlm.nih.gov/pubmed/11166973/)</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="27"/>
-      <c r="B231" s="37"/>
-      <c r="C231" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="27"/>
-      <c r="B232" s="37"/>
-      <c r="C232" s="16"/>
-    </row>
-    <row r="233" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="16"/>
-      <c r="B233" s="37"/>
-      <c r="C233" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="16"/>
-      <c r="B234" s="37"/>
-      <c r="C234" s="16"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="15"/>
-      <c r="C235" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="15"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B237" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C237" s="3" t="str">
-        <f>B237</f>
-        <v>This variant causes [retinal dystrophy and iris coloboma with or without congenital cataract](https://www.ncbi.nlm.nih.gov/clinvar/variation/218881/). Abnormalities include [adhesions between the iris and lens](https://www.ncbi.nlm.nih.gov/medgen/488784), [visual impairment or vision loss](https://www.ncbi.nlm.nih.gov/medgen/65889), and [retinal atrophy](https://www.ncbi.nlm.nih.gov/medgen/101075). It may also cause [decreased color vision, degradation of retinal veins, and congenital cataracts](http://www.malacards.org/card/retinal_dystrophy_and_iris_coloboma_with_or_without_congenital_cataract).</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="15"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="15"/>
-      <c r="C239" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="15"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="15"/>
-      <c r="B241" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C241" s="3" t="str">
-        <f>B241</f>
-        <v>Symptoms may improve after removal of cataracts, and should be monitored carefully to prevent further lens and iris adhesion due to [incorrect surgery](https://www.ncbi.nlm.nih.gov/pubmed/19246951).</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="37"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A178" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B245" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C245" s="3" t="str">
-        <f>CONCATENATE("&lt;symptoms ",B245," /&gt;")</f>
-        <v>&lt;symptoms  vision problems D014786 pain D010146 chills and night sweats D023341 multiple chemical sensitivity/allergies D018777 inflamation D007249 /&gt;</v>
-      </c>
-    </row>
-    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C917" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B908," gene from ",B917," to ",B918," resulting in incorrect ",B911," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+      <c r="B178" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="C178" s="3" t="str">
+        <f>CONCATENATE("&lt;symptoms ",B178," /&gt;")</f>
+        <v>&lt;symptoms fatigue D005221 pain D010146 muscle aches and pain D063806 tender lymph nodes D000072281 inflamation D007249 /&gt;</v>
+      </c>
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C850" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B841," gene from ",B850," to ",B851," resulting in incorrect ",B844," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C923" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B908," gene from ",B923," to ",B924," resulting in incorrect ",B911," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C856" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B841," gene from ",B856," to ",B857," resulting in incorrect ",B844," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1053" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1053" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1044," gene from ",B1053," to ",B1054," resulting in incorrect ",B1047," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="986" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C986" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B977," gene from ",B986," to ",B987," resulting in incorrect ",B980," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1059" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1059" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1044," gene from ",B1059," to ",B1060," resulting in incorrect ",B1047," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="992" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C992" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B977," gene from ",B992," to ",B993," resulting in incorrect ",B980," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1461" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1461" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1452," gene from ",B1461," to ",B1462," resulting in incorrect ",B1455," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1394" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1385," gene from ",B1394," to ",B1395," resulting in incorrect ",B1388," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1467" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1467" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1452," gene from ",B1467," to ",B1468," resulting in incorrect ",B1455," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1400" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1385," gene from ",B1400," to ",B1401," resulting in incorrect ",B1388," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1597" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1597" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1588," gene from ",B1597," to ",B1598," resulting in incorrect ",B1591," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1530" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1521," gene from ",B1530," to ",B1531," resulting in incorrect ",B1524," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1603" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1603" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1588," gene from ",B1603," to ",B1604," resulting in incorrect ",B1591," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1536" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1521," gene from ",B1536," to ",B1537," resulting in incorrect ",B1524," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1733" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1733" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1724," gene from ",B1733," to ",B1734," resulting in incorrect ",B1727," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1666" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1666" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1657," gene from ",B1666," to ",B1667," resulting in incorrect ",B1660," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1739" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1739" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1724," gene from ",B1739," to ",B1740," resulting in incorrect ",B1727," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1672" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1672" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1657," gene from ",B1672," to ",B1673," resulting in incorrect ",B1660," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1869" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1869" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1860," gene from ",B1869," to ",B1870," resulting in incorrect ",B1863," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1802" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1802" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1793," gene from ",B1802," to ",B1803," resulting in incorrect ",B1796," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="1875" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C1875" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1860," gene from ",B1875," to ",B1876," resulting in incorrect ",B1863," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1808" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1808" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1793," gene from ",B1808," to ",B1809," resulting in incorrect ",B1796," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2005" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2005" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1996," gene from ",B2005," to ",B2006," resulting in incorrect ",B1999," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1938" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1938" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1929," gene from ",B1938," to ",B1939," resulting in incorrect ",B1932," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2011" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2011" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1996," gene from ",B2011," to ",B2012," resulting in incorrect ",B1999," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="1944" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1944" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B1929," gene from ",B1944," to ",B1945," resulting in incorrect ",B1932," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2141" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2132," gene from ",B2141," to ",B2142," resulting in incorrect ",B2135," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="2074" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2074" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2065," gene from ",B2074," to ",B2075," resulting in incorrect ",B2068," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2147" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2132," gene from ",B2147," to ",B2148," resulting in incorrect ",B2135," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="2080" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2080" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2065," gene from ",B2080," to ",B2081," resulting in incorrect ",B2068," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2277" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2268," gene from ",B2277," to ",B2278," resulting in incorrect ",B2271," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="2210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2210" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2201," gene from ",B2210," to ",B2211," resulting in incorrect ",B2204," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2283" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2268," gene from ",B2283," to ",B2284," resulting in incorrect ",B2271," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="2216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2216" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2201," gene from ",B2216," to ",B2217," resulting in incorrect ",B2204," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2413" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2413" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2404," gene from ",B2413," to ",B2414," resulting in incorrect ",B2407," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="2346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2346" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2337," gene from ",B2346," to ",B2347," resulting in incorrect ",B2340," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
-    <row r="2419" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2419" s="3" t="str">
-        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2404," gene from ",B2419," to ",B2420," resulting in incorrect ",B2407," function. This substitution of a single nucleotide is known as a missense variant.")</f>
+    <row r="2352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2352" s="3" t="str">
+        <f>CONCATENATE("    This variant is a change at a specific point in the ",B2337," gene from ",B2352," to ",B2353," resulting in incorrect ",B2340," function. This substitution of a single nucleotide is known as a missense variant.")</f>
         <v xml:space="preserve">    This variant is a change at a specific point in the  gene from  to  resulting in incorrect  function. This substitution of a single nucleotide is known as a missense variant.</v>
       </c>
     </row>
